--- a/supplementalData/Table S6.xlsx
+++ b/supplementalData/Table S6.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danny/Dropbox/_Manuscripts/16 Species Paper/_ToSubmit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danny/projects/GitHub/Drosophila14GenomesProject/supplementalData/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F216029D-80C4-C041-8C9A-85EB2B42F311}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="3060" windowWidth="26840" windowHeight="15940"/>
+    <workbookView xWindow="3980" yWindow="3060" windowWidth="26840" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S6-AfterPilon" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="116">
   <si>
     <t>Dyak.pass.minimap2.pilon.x6.fasta</t>
   </si>
@@ -213,27 +214,6 @@
   </si>
   <si>
     <t>Dmau.pass.minimap2.pilon.x1.fasta</t>
-  </si>
-  <si>
-    <t>Dkik.pass.minimap2.pilon.x6.fasta</t>
-  </si>
-  <si>
-    <t>Dkik</t>
-  </si>
-  <si>
-    <t>Dkik.pass.minimap2.pilon.x5.fasta</t>
-  </si>
-  <si>
-    <t>Dkik.pass.minimap2.pilon.x4.fasta</t>
-  </si>
-  <si>
-    <t>Dkik.pass.minimap2.pilon.x3.fasta</t>
-  </si>
-  <si>
-    <t>Dkik.pass.minimap2.pilon.x2.fasta</t>
-  </si>
-  <si>
-    <t>Dkik.pass.minimap2.pilon.x1.fasta</t>
   </si>
   <si>
     <t>Deug.pass.minimap2.pilon.x6.fasta</t>
@@ -398,7 +378,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -463,13 +443,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -784,14 +764,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,82 +794,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>122</v>
+      <c r="A1" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F2" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="L2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="L2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -933,10 +913,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -980,10 +960,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1027,10 +1007,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1074,10 +1054,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1121,10 +1101,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1168,10 +1148,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1215,10 +1195,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -1262,10 +1242,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1309,10 +1289,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1356,10 +1336,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1403,10 +1383,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1450,10 +1430,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -1497,10 +1477,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1544,10 +1524,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1591,10 +1571,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -1638,10 +1618,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -1685,10 +1665,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -1732,10 +1712,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -1779,10 +1759,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -1826,10 +1806,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -1873,10 +1853,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -1920,10 +1900,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -1967,10 +1947,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -2014,10 +1994,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -2061,10 +2041,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -2108,10 +2088,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -2155,10 +2135,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -2202,10 +2182,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -2249,10 +2229,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -2296,10 +2276,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -2308,34 +2288,34 @@
         <v>1</v>
       </c>
       <c r="F34" s="2">
-        <v>172034754</v>
+        <v>132889475</v>
       </c>
       <c r="G34" s="2">
-        <v>482</v>
+        <v>272</v>
       </c>
       <c r="H34" s="2">
-        <v>731038</v>
+        <v>4687665</v>
       </c>
       <c r="I34" s="2">
-        <v>342</v>
+        <v>64</v>
       </c>
       <c r="J34" s="2">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L34" s="1">
-        <v>73.5</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="M34" s="1">
-        <v>72.099999999999994</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="N34" s="1">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="O34" s="1">
         <v>11.6</v>
       </c>
       <c r="P34" s="1">
-        <v>14.9</v>
+        <v>12.5</v>
       </c>
       <c r="Q34" s="1">
         <v>978</v>
@@ -2343,10 +2323,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -2355,34 +2335,34 @@
         <v>2</v>
       </c>
       <c r="F35" s="2">
-        <v>172188312</v>
+        <v>133271397</v>
       </c>
       <c r="G35" s="2">
-        <v>482</v>
+        <v>272</v>
       </c>
       <c r="H35" s="2">
-        <v>735924</v>
+        <v>4691828</v>
       </c>
       <c r="I35" s="2">
-        <v>341</v>
+        <v>64</v>
       </c>
       <c r="J35" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L35" s="1">
-        <v>85.5</v>
+        <v>91.8</v>
       </c>
       <c r="M35" s="1">
-        <v>83.9</v>
+        <v>90.3</v>
       </c>
       <c r="N35" s="1">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="O35" s="1">
-        <v>4.5999999999999996</v>
+        <v>2.8</v>
       </c>
       <c r="P35" s="1">
-        <v>9.9</v>
+        <v>5.4</v>
       </c>
       <c r="Q35" s="1">
         <v>978</v>
@@ -2390,10 +2370,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -2402,34 +2382,34 @@
         <v>3</v>
       </c>
       <c r="F36" s="2">
-        <v>172054555</v>
+        <v>133130881</v>
       </c>
       <c r="G36" s="2">
-        <v>482</v>
+        <v>272</v>
       </c>
       <c r="H36" s="2">
-        <v>737269</v>
+        <v>4681467</v>
       </c>
       <c r="I36" s="2">
-        <v>340</v>
+        <v>64</v>
       </c>
       <c r="J36" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L36" s="1">
-        <v>87.5</v>
+        <v>94.3</v>
       </c>
       <c r="M36" s="1">
-        <v>85.3</v>
+        <v>92.9</v>
       </c>
       <c r="N36" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="O36" s="1">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="P36" s="1">
-        <v>8.5</v>
+        <v>3.9</v>
       </c>
       <c r="Q36" s="1">
         <v>978</v>
@@ -2437,10 +2417,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -2449,34 +2429,34 @@
         <v>4</v>
       </c>
       <c r="F37" s="2">
-        <v>171991936</v>
+        <v>133109151</v>
       </c>
       <c r="G37" s="2">
-        <v>482</v>
+        <v>272</v>
       </c>
       <c r="H37" s="2">
-        <v>737382</v>
+        <v>4681952</v>
       </c>
       <c r="I37" s="2">
-        <v>340</v>
+        <v>64</v>
       </c>
       <c r="J37" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L37" s="1">
-        <v>87.9</v>
+        <v>95</v>
       </c>
       <c r="M37" s="1">
-        <v>85.7</v>
+        <v>93.6</v>
       </c>
       <c r="N37" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="O37" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="P37" s="1">
         <v>3.8</v>
-      </c>
-      <c r="P37" s="1">
-        <v>8.3000000000000007</v>
       </c>
       <c r="Q37" s="1">
         <v>978</v>
@@ -2484,10 +2464,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -2496,34 +2476,34 @@
         <v>5</v>
       </c>
       <c r="F38" s="2">
-        <v>171963168</v>
+        <v>133088028</v>
       </c>
       <c r="G38" s="2">
-        <v>482</v>
+        <v>272</v>
       </c>
       <c r="H38" s="2">
-        <v>737327</v>
+        <v>4681973</v>
       </c>
       <c r="I38" s="2">
-        <v>340</v>
+        <v>64</v>
       </c>
       <c r="J38" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L38" s="1">
-        <v>87.9</v>
+        <v>95</v>
       </c>
       <c r="M38" s="1">
-        <v>85.7</v>
+        <v>93.6</v>
       </c>
       <c r="N38" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="O38" s="1">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="P38" s="1">
-        <v>8.1999999999999993</v>
+        <v>3.8</v>
       </c>
       <c r="Q38" s="1">
         <v>978</v>
@@ -2531,10 +2511,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -2543,34 +2523,34 @@
         <v>6</v>
       </c>
       <c r="F39" s="2">
-        <v>171962912</v>
+        <v>133047294</v>
       </c>
       <c r="G39" s="2">
-        <v>482</v>
+        <v>272</v>
       </c>
       <c r="H39" s="2">
-        <v>737338</v>
+        <v>4676231</v>
       </c>
       <c r="I39" s="2">
-        <v>340</v>
+        <v>63</v>
       </c>
       <c r="J39" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L39" s="1">
-        <v>87.9</v>
+        <v>95</v>
       </c>
       <c r="M39" s="1">
-        <v>85.7</v>
+        <v>93.6</v>
       </c>
       <c r="N39" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="O39" s="1">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="P39" s="1">
-        <v>8.1999999999999993</v>
+        <v>3.8</v>
       </c>
       <c r="Q39" s="1">
         <v>978</v>
@@ -2578,10 +2558,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -2590,34 +2570,34 @@
         <v>1</v>
       </c>
       <c r="F40" s="2">
-        <v>132889475</v>
+        <v>164914113</v>
       </c>
       <c r="G40" s="2">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="H40" s="2">
-        <v>4687665</v>
+        <v>5145024</v>
       </c>
       <c r="I40" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="J40" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L40" s="1">
-        <v>75.900000000000006</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="M40" s="1">
-        <v>74.900000000000006</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="N40" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O40" s="1">
-        <v>11.6</v>
+        <v>16.2</v>
       </c>
       <c r="P40" s="1">
-        <v>12.5</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="Q40" s="1">
         <v>978</v>
@@ -2625,10 +2605,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
@@ -2637,34 +2617,34 @@
         <v>2</v>
       </c>
       <c r="F41" s="2">
-        <v>133271397</v>
+        <v>165796365</v>
       </c>
       <c r="G41" s="2">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="H41" s="2">
-        <v>4691828</v>
+        <v>5184712</v>
       </c>
       <c r="I41" s="2">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="J41" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L41" s="1">
-        <v>91.8</v>
+        <v>89.1</v>
       </c>
       <c r="M41" s="1">
-        <v>90.3</v>
+        <v>87.6</v>
       </c>
       <c r="N41" s="1">
         <v>1.5</v>
       </c>
       <c r="O41" s="1">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P41" s="1">
-        <v>5.4</v>
+        <v>7.3</v>
       </c>
       <c r="Q41" s="1">
         <v>978</v>
@@ -2672,10 +2652,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -2684,34 +2664,34 @@
         <v>3</v>
       </c>
       <c r="F42" s="2">
-        <v>133130881</v>
+        <v>165777308</v>
       </c>
       <c r="G42" s="2">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="H42" s="2">
-        <v>4681467</v>
+        <v>5186886</v>
       </c>
       <c r="I42" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="J42" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L42" s="1">
-        <v>94.3</v>
+        <v>92.4</v>
       </c>
       <c r="M42" s="1">
-        <v>92.9</v>
+        <v>90.7</v>
       </c>
       <c r="N42" s="1">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="O42" s="1">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P42" s="1">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="Q42" s="1">
         <v>978</v>
@@ -2719,10 +2699,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -2731,34 +2711,34 @@
         <v>4</v>
       </c>
       <c r="F43" s="2">
-        <v>133109151</v>
+        <v>165745880</v>
       </c>
       <c r="G43" s="2">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="H43" s="2">
-        <v>4681952</v>
+        <v>5188241</v>
       </c>
       <c r="I43" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="J43" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L43" s="1">
-        <v>95</v>
+        <v>93.6</v>
       </c>
       <c r="M43" s="1">
-        <v>93.6</v>
+        <v>92.1</v>
       </c>
       <c r="N43" s="1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O43" s="1">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="P43" s="1">
-        <v>3.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Q43" s="1">
         <v>978</v>
@@ -2766,10 +2746,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -2778,34 +2758,34 @@
         <v>5</v>
       </c>
       <c r="F44" s="2">
-        <v>133088028</v>
+        <v>165729370</v>
       </c>
       <c r="G44" s="2">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="H44" s="2">
-        <v>4681973</v>
+        <v>5188207</v>
       </c>
       <c r="I44" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="J44" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L44" s="1">
-        <v>95</v>
+        <v>93.5</v>
       </c>
       <c r="M44" s="1">
-        <v>93.6</v>
+        <v>92</v>
       </c>
       <c r="N44" s="1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O44" s="1">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="P44" s="1">
-        <v>3.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Q44" s="1">
         <v>978</v>
@@ -2813,10 +2793,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -2825,34 +2805,34 @@
         <v>6</v>
       </c>
       <c r="F45" s="2">
-        <v>133047294</v>
+        <v>165730946</v>
       </c>
       <c r="G45" s="2">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="H45" s="2">
-        <v>4676231</v>
+        <v>5188410</v>
       </c>
       <c r="I45" s="2">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="J45" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L45" s="1">
-        <v>95</v>
+        <v>93.5</v>
       </c>
       <c r="M45" s="1">
-        <v>93.6</v>
+        <v>92</v>
       </c>
       <c r="N45" s="1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O45" s="1">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="P45" s="1">
-        <v>3.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Q45" s="1">
         <v>978</v>
@@ -2860,10 +2840,10 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -2872,34 +2852,34 @@
         <v>1</v>
       </c>
       <c r="F46" s="2">
-        <v>164914113</v>
+        <v>164702087</v>
       </c>
       <c r="G46" s="2">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="H46" s="2">
-        <v>5145024</v>
+        <v>3439501</v>
       </c>
       <c r="I46" s="2">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="J46" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L46" s="1">
-        <v>66.900000000000006</v>
+        <v>62.1</v>
       </c>
       <c r="M46" s="1">
-        <v>66.400000000000006</v>
+        <v>61.5</v>
       </c>
       <c r="N46" s="1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O46" s="1">
-        <v>16.2</v>
+        <v>17.7</v>
       </c>
       <c r="P46" s="1">
-        <v>16.899999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="Q46" s="1">
         <v>978</v>
@@ -2907,10 +2887,10 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -2919,34 +2899,34 @@
         <v>2</v>
       </c>
       <c r="F47" s="2">
-        <v>165796365</v>
+        <v>164122849</v>
       </c>
       <c r="G47" s="2">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="H47" s="2">
-        <v>5184712</v>
+        <v>3431076</v>
       </c>
       <c r="I47" s="2">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="J47" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L47" s="1">
-        <v>89.1</v>
+        <v>86.7</v>
       </c>
       <c r="M47" s="1">
-        <v>87.6</v>
+        <v>85.2</v>
       </c>
       <c r="N47" s="1">
         <v>1.5</v>
       </c>
       <c r="O47" s="1">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P47" s="1">
-        <v>7.3</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Q47" s="1">
         <v>978</v>
@@ -2954,10 +2934,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
@@ -2966,34 +2946,34 @@
         <v>3</v>
       </c>
       <c r="F48" s="2">
-        <v>165777308</v>
+        <v>163749682</v>
       </c>
       <c r="G48" s="2">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="H48" s="2">
-        <v>5186886</v>
+        <v>3427903</v>
       </c>
       <c r="I48" s="2">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="J48" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L48" s="1">
-        <v>92.4</v>
+        <v>89.6</v>
       </c>
       <c r="M48" s="1">
-        <v>90.7</v>
+        <v>87.8</v>
       </c>
       <c r="N48" s="1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O48" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="P48" s="1">
-        <v>5.4</v>
+        <v>7.6</v>
       </c>
       <c r="Q48" s="1">
         <v>978</v>
@@ -3001,10 +2981,10 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -3013,34 +2993,34 @@
         <v>4</v>
       </c>
       <c r="F49" s="2">
-        <v>165745880</v>
+        <v>163599937</v>
       </c>
       <c r="G49" s="2">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="H49" s="2">
-        <v>5188241</v>
+        <v>3427105</v>
       </c>
       <c r="I49" s="2">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="J49" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L49" s="1">
-        <v>93.6</v>
+        <v>90.9</v>
       </c>
       <c r="M49" s="1">
-        <v>92.1</v>
+        <v>89.1</v>
       </c>
       <c r="N49" s="1">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O49" s="1">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P49" s="1">
-        <v>4.9000000000000004</v>
+        <v>6.9</v>
       </c>
       <c r="Q49" s="1">
         <v>978</v>
@@ -3048,10 +3028,10 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
@@ -3060,34 +3040,34 @@
         <v>5</v>
       </c>
       <c r="F50" s="2">
-        <v>165729370</v>
+        <v>163540488</v>
       </c>
       <c r="G50" s="2">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="H50" s="2">
-        <v>5188207</v>
+        <v>3427010</v>
       </c>
       <c r="I50" s="2">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="J50" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L50" s="1">
-        <v>93.5</v>
+        <v>90.9</v>
       </c>
       <c r="M50" s="1">
-        <v>92</v>
+        <v>89.1</v>
       </c>
       <c r="N50" s="1">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O50" s="1">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P50" s="1">
-        <v>4.9000000000000004</v>
+        <v>6.9</v>
       </c>
       <c r="Q50" s="1">
         <v>978</v>
@@ -3095,10 +3075,10 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
@@ -3107,34 +3087,34 @@
         <v>6</v>
       </c>
       <c r="F51" s="2">
-        <v>165730946</v>
+        <v>163522422</v>
       </c>
       <c r="G51" s="2">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="H51" s="2">
-        <v>5188410</v>
+        <v>3427071</v>
       </c>
       <c r="I51" s="2">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="J51" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L51" s="1">
-        <v>93.5</v>
+        <v>90.9</v>
       </c>
       <c r="M51" s="1">
-        <v>92</v>
+        <v>89.1</v>
       </c>
       <c r="N51" s="1">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O51" s="1">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P51" s="1">
-        <v>4.9000000000000004</v>
+        <v>6.9</v>
       </c>
       <c r="Q51" s="1">
         <v>978</v>
@@ -3142,10 +3122,10 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -3154,34 +3134,34 @@
         <v>1</v>
       </c>
       <c r="F52" s="2">
-        <v>164702087</v>
+        <v>159598160</v>
       </c>
       <c r="G52" s="2">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="H52" s="2">
-        <v>3439501</v>
+        <v>2985495</v>
       </c>
       <c r="I52" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J52" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L52" s="1">
-        <v>62.1</v>
+        <v>72.3</v>
       </c>
       <c r="M52" s="1">
-        <v>61.5</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="N52" s="1">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="O52" s="1">
-        <v>17.7</v>
+        <v>13.1</v>
       </c>
       <c r="P52" s="1">
-        <v>20.2</v>
+        <v>14.6</v>
       </c>
       <c r="Q52" s="1">
         <v>978</v>
@@ -3189,10 +3169,10 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -3201,34 +3181,34 @@
         <v>2</v>
       </c>
       <c r="F53" s="2">
-        <v>164122849</v>
+        <v>159140001</v>
       </c>
       <c r="G53" s="2">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="H53" s="2">
-        <v>3431076</v>
+        <v>2984088</v>
       </c>
       <c r="I53" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J53" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L53" s="1">
-        <v>86.7</v>
+        <v>89.4</v>
       </c>
       <c r="M53" s="1">
-        <v>85.2</v>
+        <v>87.9</v>
       </c>
       <c r="N53" s="1">
         <v>1.5</v>
       </c>
       <c r="O53" s="1">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="P53" s="1">
-        <v>8.8000000000000007</v>
+        <v>6.7</v>
       </c>
       <c r="Q53" s="1">
         <v>978</v>
@@ -3236,10 +3216,10 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -3248,34 +3228,34 @@
         <v>3</v>
       </c>
       <c r="F54" s="2">
-        <v>163749682</v>
+        <v>158951936</v>
       </c>
       <c r="G54" s="2">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="H54" s="2">
-        <v>3427903</v>
+        <v>2981501</v>
       </c>
       <c r="I54" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J54" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L54" s="1">
-        <v>89.6</v>
+        <v>93</v>
       </c>
       <c r="M54" s="1">
-        <v>87.8</v>
+        <v>91.6</v>
       </c>
       <c r="N54" s="1">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O54" s="1">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="P54" s="1">
-        <v>7.6</v>
+        <v>5.3</v>
       </c>
       <c r="Q54" s="1">
         <v>978</v>
@@ -3283,10 +3263,10 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -3295,34 +3275,34 @@
         <v>4</v>
       </c>
       <c r="F55" s="2">
-        <v>163599937</v>
+        <v>158882340</v>
       </c>
       <c r="G55" s="2">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="H55" s="2">
-        <v>3427105</v>
+        <v>2981639</v>
       </c>
       <c r="I55" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="J55" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L55" s="1">
-        <v>90.9</v>
+        <v>93.8</v>
       </c>
       <c r="M55" s="1">
-        <v>89.1</v>
+        <v>92.6</v>
       </c>
       <c r="N55" s="1">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="O55" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P55" s="1">
-        <v>6.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q55" s="1">
         <v>978</v>
@@ -3330,10 +3310,10 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -3342,34 +3322,34 @@
         <v>5</v>
       </c>
       <c r="F56" s="2">
-        <v>163540488</v>
+        <v>158816496</v>
       </c>
       <c r="G56" s="2">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="H56" s="2">
-        <v>3427010</v>
+        <v>2981650</v>
       </c>
       <c r="I56" s="2">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J56" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L56" s="1">
-        <v>90.9</v>
+        <v>93.9</v>
       </c>
       <c r="M56" s="1">
-        <v>89.1</v>
+        <v>92.7</v>
       </c>
       <c r="N56" s="1">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="O56" s="1">
-        <v>2.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="P56" s="1">
-        <v>6.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q56" s="1">
         <v>978</v>
@@ -3377,10 +3357,10 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -3389,34 +3369,34 @@
         <v>6</v>
       </c>
       <c r="F57" s="2">
-        <v>163522422</v>
+        <v>158810410</v>
       </c>
       <c r="G57" s="2">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="H57" s="2">
-        <v>3427071</v>
+        <v>2981769</v>
       </c>
       <c r="I57" s="2">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J57" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L57" s="1">
-        <v>90.9</v>
+        <v>93.9</v>
       </c>
       <c r="M57" s="1">
-        <v>89.1</v>
+        <v>92.7</v>
       </c>
       <c r="N57" s="1">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="O57" s="1">
-        <v>2.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="P57" s="1">
-        <v>6.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q57" s="1">
         <v>978</v>
@@ -3424,10 +3404,10 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
@@ -3436,34 +3416,34 @@
         <v>1</v>
       </c>
       <c r="F58" s="2">
-        <v>159598160</v>
+        <v>136143832</v>
       </c>
       <c r="G58" s="2">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="H58" s="2">
-        <v>2985495</v>
+        <v>7603378</v>
       </c>
       <c r="I58" s="2">
-        <v>143</v>
+        <v>59</v>
       </c>
       <c r="J58" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L58" s="1">
-        <v>72.3</v>
+        <v>75.3</v>
       </c>
       <c r="M58" s="1">
-        <v>71.400000000000006</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="N58" s="1">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="O58" s="1">
-        <v>13.1</v>
+        <v>12.2</v>
       </c>
       <c r="P58" s="1">
-        <v>14.6</v>
+        <v>12.5</v>
       </c>
       <c r="Q58" s="1">
         <v>978</v>
@@ -3471,10 +3451,10 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -3483,34 +3463,34 @@
         <v>2</v>
       </c>
       <c r="F59" s="2">
-        <v>159140001</v>
+        <v>136608060</v>
       </c>
       <c r="G59" s="2">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="H59" s="2">
-        <v>2984088</v>
+        <v>7651024</v>
       </c>
       <c r="I59" s="2">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="J59" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L59" s="1">
-        <v>89.4</v>
+        <v>92.1</v>
       </c>
       <c r="M59" s="1">
-        <v>87.9</v>
+        <v>90.8</v>
       </c>
       <c r="N59" s="1">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="O59" s="1">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="P59" s="1">
-        <v>6.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Q59" s="1">
         <v>978</v>
@@ -3518,10 +3498,10 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
@@ -3530,25 +3510,25 @@
         <v>3</v>
       </c>
       <c r="F60" s="2">
-        <v>158951936</v>
+        <v>136435206</v>
       </c>
       <c r="G60" s="2">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="H60" s="2">
-        <v>2981501</v>
+        <v>7654229</v>
       </c>
       <c r="I60" s="2">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="J60" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L60" s="1">
-        <v>93</v>
+        <v>94.7</v>
       </c>
       <c r="M60" s="1">
-        <v>91.6</v>
+        <v>93.3</v>
       </c>
       <c r="N60" s="1">
         <v>1.4</v>
@@ -3557,7 +3537,7 @@
         <v>1.7</v>
       </c>
       <c r="P60" s="1">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q60" s="1">
         <v>978</v>
@@ -3565,10 +3545,10 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -3577,34 +3557,34 @@
         <v>4</v>
       </c>
       <c r="F61" s="2">
-        <v>158882340</v>
+        <v>136368550</v>
       </c>
       <c r="G61" s="2">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="H61" s="2">
-        <v>2981639</v>
+        <v>7656100</v>
       </c>
       <c r="I61" s="2">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="J61" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L61" s="1">
+        <v>95.2</v>
+      </c>
+      <c r="M61" s="1">
         <v>93.8</v>
       </c>
-      <c r="M61" s="1">
-        <v>92.6</v>
-      </c>
       <c r="N61" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O61" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="P61" s="1">
-        <v>5.0999999999999996</v>
+        <v>3.4</v>
       </c>
       <c r="Q61" s="1">
         <v>978</v>
@@ -3612,10 +3592,10 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
@@ -3624,34 +3604,34 @@
         <v>5</v>
       </c>
       <c r="F62" s="2">
-        <v>158816496</v>
+        <v>136303718</v>
       </c>
       <c r="G62" s="2">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="H62" s="2">
-        <v>2981650</v>
+        <v>7656328</v>
       </c>
       <c r="I62" s="2">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="J62" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L62" s="1">
-        <v>93.9</v>
+        <v>95.2</v>
       </c>
       <c r="M62" s="1">
-        <v>92.7</v>
+        <v>93.8</v>
       </c>
       <c r="N62" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O62" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P62" s="1">
-        <v>5.0999999999999996</v>
+        <v>3.3</v>
       </c>
       <c r="Q62" s="1">
         <v>978</v>
@@ -3659,10 +3639,10 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
@@ -3671,34 +3651,34 @@
         <v>6</v>
       </c>
       <c r="F63" s="2">
-        <v>158810410</v>
+        <v>136251923</v>
       </c>
       <c r="G63" s="2">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="H63" s="2">
-        <v>2981769</v>
+        <v>7656607</v>
       </c>
       <c r="I63" s="2">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="J63" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L63" s="1">
-        <v>93.9</v>
+        <v>95.2</v>
       </c>
       <c r="M63" s="1">
-        <v>92.7</v>
+        <v>93.8</v>
       </c>
       <c r="N63" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O63" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P63" s="1">
-        <v>5.0999999999999996</v>
+        <v>3.3</v>
       </c>
       <c r="Q63" s="1">
         <v>978</v>
@@ -3706,10 +3686,10 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
@@ -3718,34 +3698,34 @@
         <v>1</v>
       </c>
       <c r="F64" s="2">
-        <v>136143832</v>
+        <v>132807398</v>
       </c>
       <c r="G64" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H64" s="2">
-        <v>7603378</v>
+        <v>7713834</v>
       </c>
       <c r="I64" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J64" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L64" s="1">
-        <v>75.3</v>
+        <v>77.5</v>
       </c>
       <c r="M64" s="1">
-        <v>74.599999999999994</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="N64" s="1">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="O64" s="1">
-        <v>12.2</v>
+        <v>10.4</v>
       </c>
       <c r="P64" s="1">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="Q64" s="1">
         <v>978</v>
@@ -3753,10 +3733,10 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
@@ -3765,34 +3745,34 @@
         <v>2</v>
       </c>
       <c r="F65" s="2">
-        <v>136608060</v>
+        <v>132695875</v>
       </c>
       <c r="G65" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H65" s="2">
-        <v>7651024</v>
+        <v>7871734</v>
       </c>
       <c r="I65" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J65" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L65" s="1">
-        <v>92.1</v>
+        <v>90.8</v>
       </c>
       <c r="M65" s="1">
-        <v>90.8</v>
+        <v>89.4</v>
       </c>
       <c r="N65" s="1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="O65" s="1">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P65" s="1">
-        <v>4.5999999999999996</v>
+        <v>6.2</v>
       </c>
       <c r="Q65" s="1">
         <v>978</v>
@@ -3800,10 +3780,10 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
@@ -3812,25 +3792,25 @@
         <v>3</v>
       </c>
       <c r="F66" s="2">
-        <v>136435206</v>
+        <v>132556867</v>
       </c>
       <c r="G66" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H66" s="2">
-        <v>7654229</v>
+        <v>7871332</v>
       </c>
       <c r="I66" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J66" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L66" s="1">
-        <v>94.7</v>
+        <v>93.9</v>
       </c>
       <c r="M66" s="1">
-        <v>93.3</v>
+        <v>92.5</v>
       </c>
       <c r="N66" s="1">
         <v>1.4</v>
@@ -3839,7 +3819,7 @@
         <v>1.7</v>
       </c>
       <c r="P66" s="1">
-        <v>3.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q66" s="1">
         <v>978</v>
@@ -3847,10 +3827,10 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
@@ -3859,34 +3839,34 @@
         <v>4</v>
       </c>
       <c r="F67" s="2">
-        <v>136368550</v>
+        <v>132446572</v>
       </c>
       <c r="G67" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H67" s="2">
-        <v>7656100</v>
+        <v>7872556</v>
       </c>
       <c r="I67" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J67" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L67" s="1">
-        <v>95.2</v>
+        <v>94.3</v>
       </c>
       <c r="M67" s="1">
-        <v>93.8</v>
+        <v>92.8</v>
       </c>
       <c r="N67" s="1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O67" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="P67" s="1">
-        <v>3.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q67" s="1">
         <v>978</v>
@@ -3894,10 +3874,10 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
@@ -3906,34 +3886,34 @@
         <v>5</v>
       </c>
       <c r="F68" s="2">
-        <v>136303718</v>
+        <v>132389978</v>
       </c>
       <c r="G68" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H68" s="2">
-        <v>7656328</v>
+        <v>7872884</v>
       </c>
       <c r="I68" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J68" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L68" s="1">
-        <v>95.2</v>
+        <v>94.4</v>
       </c>
       <c r="M68" s="1">
-        <v>93.8</v>
+        <v>92.8</v>
       </c>
       <c r="N68" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="O68" s="1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="P68" s="1">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q68" s="1">
         <v>978</v>
@@ -3941,10 +3921,10 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
@@ -3953,34 +3933,34 @@
         <v>6</v>
       </c>
       <c r="F69" s="2">
-        <v>136251923</v>
+        <v>132383485</v>
       </c>
       <c r="G69" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H69" s="2">
-        <v>7656607</v>
+        <v>7872970</v>
       </c>
       <c r="I69" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J69" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L69" s="1">
-        <v>95.2</v>
+        <v>94.4</v>
       </c>
       <c r="M69" s="1">
-        <v>93.8</v>
+        <v>92.8</v>
       </c>
       <c r="N69" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="O69" s="1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="P69" s="1">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q69" s="1">
         <v>978</v>
@@ -3988,10 +3968,10 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
@@ -4000,34 +3980,34 @@
         <v>1</v>
       </c>
       <c r="F70" s="2">
-        <v>132807398</v>
+        <v>167512605</v>
       </c>
       <c r="G70" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="H70" s="2">
-        <v>7713834</v>
+        <v>4116587</v>
       </c>
       <c r="I70" s="2">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J70" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L70" s="1">
-        <v>77.5</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="M70" s="1">
-        <v>76.900000000000006</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="N70" s="1">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="O70" s="1">
-        <v>10.4</v>
+        <v>12.7</v>
       </c>
       <c r="P70" s="1">
-        <v>12.1</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="Q70" s="1">
         <v>978</v>
@@ -4035,10 +4015,10 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
@@ -4047,34 +4027,34 @@
         <v>2</v>
       </c>
       <c r="F71" s="2">
-        <v>132695875</v>
+        <v>167674519</v>
       </c>
       <c r="G71" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="H71" s="2">
-        <v>7871734</v>
+        <v>4127431</v>
       </c>
       <c r="I71" s="2">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="J71" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L71" s="1">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="M71" s="1">
         <v>89.4</v>
       </c>
       <c r="N71" s="1">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="O71" s="1">
         <v>3</v>
       </c>
       <c r="P71" s="1">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Q71" s="1">
         <v>978</v>
@@ -4082,10 +4062,10 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
@@ -4094,34 +4074,34 @@
         <v>3</v>
       </c>
       <c r="F72" s="2">
-        <v>132556867</v>
+        <v>167409770</v>
       </c>
       <c r="G72" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="H72" s="2">
-        <v>7871332</v>
+        <v>4128903</v>
       </c>
       <c r="I72" s="2">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="J72" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L72" s="1">
-        <v>93.9</v>
+        <v>92.9</v>
       </c>
       <c r="M72" s="1">
-        <v>92.5</v>
+        <v>91</v>
       </c>
       <c r="N72" s="1">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="O72" s="1">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="P72" s="1">
-        <v>4.4000000000000004</v>
+        <v>5.5</v>
       </c>
       <c r="Q72" s="1">
         <v>978</v>
@@ -4129,10 +4109,10 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
@@ -4141,34 +4121,34 @@
         <v>4</v>
       </c>
       <c r="F73" s="2">
-        <v>132446572</v>
+        <v>167298246</v>
       </c>
       <c r="G73" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="H73" s="2">
-        <v>7872556</v>
+        <v>4129807</v>
       </c>
       <c r="I73" s="2">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="J73" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L73" s="1">
-        <v>94.3</v>
+        <v>93.6</v>
       </c>
       <c r="M73" s="1">
-        <v>92.8</v>
+        <v>91.7</v>
       </c>
       <c r="N73" s="1">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="O73" s="1">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="P73" s="1">
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="Q73" s="1">
         <v>978</v>
@@ -4176,10 +4156,10 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
@@ -4188,34 +4168,34 @@
         <v>5</v>
       </c>
       <c r="F74" s="2">
-        <v>132389978</v>
+        <v>167241985</v>
       </c>
       <c r="G74" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="H74" s="2">
-        <v>7872884</v>
+        <v>4124671</v>
       </c>
       <c r="I74" s="2">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="J74" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L74" s="1">
-        <v>94.4</v>
+        <v>93.6</v>
       </c>
       <c r="M74" s="1">
-        <v>92.8</v>
+        <v>91.7</v>
       </c>
       <c r="N74" s="1">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O74" s="1">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="P74" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q74" s="1">
         <v>978</v>
@@ -4223,10 +4203,10 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
@@ -4235,34 +4215,34 @@
         <v>6</v>
       </c>
       <c r="F75" s="2">
-        <v>132383485</v>
+        <v>167188394</v>
       </c>
       <c r="G75" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="H75" s="2">
-        <v>7872970</v>
+        <v>4124827</v>
       </c>
       <c r="I75" s="2">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="J75" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L75" s="1">
-        <v>94.4</v>
+        <v>93.6</v>
       </c>
       <c r="M75" s="1">
-        <v>92.8</v>
+        <v>91.7</v>
       </c>
       <c r="N75" s="1">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="O75" s="1">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="P75" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q75" s="1">
         <v>978</v>
@@ -4270,10 +4250,10 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
@@ -4282,34 +4262,34 @@
         <v>1</v>
       </c>
       <c r="F76" s="2">
-        <v>167512605</v>
+        <v>196081133</v>
       </c>
       <c r="G76" s="2">
-        <v>141</v>
+        <v>490</v>
       </c>
       <c r="H76" s="2">
-        <v>4116587</v>
+        <v>1531156</v>
       </c>
       <c r="I76" s="2">
-        <v>83</v>
+        <v>269</v>
       </c>
       <c r="J76" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L76" s="1">
-        <v>70.900000000000006</v>
+        <v>72.2</v>
       </c>
       <c r="M76" s="1">
-        <v>70.400000000000006</v>
+        <v>71.3</v>
       </c>
       <c r="N76" s="1">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="O76" s="1">
-        <v>12.7</v>
+        <v>13.7</v>
       </c>
       <c r="P76" s="1">
-        <v>16.399999999999999</v>
+        <v>14.1</v>
       </c>
       <c r="Q76" s="1">
         <v>978</v>
@@ -4317,10 +4297,10 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
@@ -4329,34 +4309,34 @@
         <v>2</v>
       </c>
       <c r="F77" s="2">
-        <v>167674519</v>
+        <v>195184592</v>
       </c>
       <c r="G77" s="2">
-        <v>141</v>
+        <v>490</v>
       </c>
       <c r="H77" s="2">
-        <v>4127431</v>
+        <v>1529063</v>
       </c>
       <c r="I77" s="2">
-        <v>83</v>
+        <v>266</v>
       </c>
       <c r="J77" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L77" s="1">
-        <v>90.7</v>
+        <v>88.7</v>
       </c>
       <c r="M77" s="1">
-        <v>89.4</v>
+        <v>86.9</v>
       </c>
       <c r="N77" s="1">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="O77" s="1">
-        <v>3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P77" s="1">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Q77" s="1">
         <v>978</v>
@@ -4364,10 +4344,10 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
@@ -4376,34 +4356,34 @@
         <v>3</v>
       </c>
       <c r="F78" s="2">
-        <v>167409770</v>
+        <v>194854289</v>
       </c>
       <c r="G78" s="2">
-        <v>141</v>
+        <v>490</v>
       </c>
       <c r="H78" s="2">
-        <v>4128903</v>
+        <v>1526881</v>
       </c>
       <c r="I78" s="2">
-        <v>83</v>
+        <v>266</v>
       </c>
       <c r="J78" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L78" s="1">
-        <v>92.9</v>
+        <v>91.5</v>
       </c>
       <c r="M78" s="1">
-        <v>91</v>
+        <v>89.5</v>
       </c>
       <c r="N78" s="1">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O78" s="1">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="P78" s="1">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Q78" s="1">
         <v>978</v>
@@ -4411,10 +4391,10 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
@@ -4423,31 +4403,31 @@
         <v>4</v>
       </c>
       <c r="F79" s="2">
-        <v>167298246</v>
+        <v>194712811</v>
       </c>
       <c r="G79" s="2">
-        <v>141</v>
+        <v>490</v>
       </c>
       <c r="H79" s="2">
-        <v>4129807</v>
+        <v>1526691</v>
       </c>
       <c r="I79" s="2">
-        <v>83</v>
+        <v>265</v>
       </c>
       <c r="J79" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L79" s="1">
-        <v>93.6</v>
+        <v>92</v>
       </c>
       <c r="M79" s="1">
-        <v>91.7</v>
+        <v>90</v>
       </c>
       <c r="N79" s="1">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O79" s="1">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="P79" s="1">
         <v>5</v>
@@ -4458,10 +4438,10 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
@@ -4470,34 +4450,34 @@
         <v>5</v>
       </c>
       <c r="F80" s="2">
-        <v>167241985</v>
+        <v>194650782</v>
       </c>
       <c r="G80" s="2">
-        <v>141</v>
+        <v>490</v>
       </c>
       <c r="H80" s="2">
-        <v>4124671</v>
+        <v>1526414</v>
       </c>
       <c r="I80" s="2">
-        <v>83</v>
+        <v>264</v>
       </c>
       <c r="J80" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L80" s="1">
-        <v>93.6</v>
+        <v>92.1</v>
       </c>
       <c r="M80" s="1">
-        <v>91.7</v>
+        <v>90.1</v>
       </c>
       <c r="N80" s="1">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O80" s="1">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="P80" s="1">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Q80" s="1">
         <v>978</v>
@@ -4505,10 +4485,10 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C81" s="1">
         <v>0</v>
@@ -4517,34 +4497,34 @@
         <v>6</v>
       </c>
       <c r="F81" s="2">
-        <v>167188394</v>
+        <v>194587023</v>
       </c>
       <c r="G81" s="2">
-        <v>141</v>
+        <v>490</v>
       </c>
       <c r="H81" s="2">
-        <v>4124827</v>
+        <v>1526407</v>
       </c>
       <c r="I81" s="2">
-        <v>83</v>
+        <v>264</v>
       </c>
       <c r="J81" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L81" s="1">
-        <v>93.6</v>
+        <v>92.1</v>
       </c>
       <c r="M81" s="1">
-        <v>91.7</v>
+        <v>90.1</v>
       </c>
       <c r="N81" s="1">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O81" s="1">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="P81" s="1">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Q81" s="1">
         <v>978</v>
@@ -4552,10 +4532,10 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C82" s="1">
         <v>0</v>
@@ -4564,34 +4544,34 @@
         <v>1</v>
       </c>
       <c r="F82" s="2">
-        <v>196081133</v>
+        <v>141954573</v>
       </c>
       <c r="G82" s="2">
-        <v>490</v>
+        <v>111</v>
       </c>
       <c r="H82" s="2">
-        <v>1531156</v>
+        <v>5189791</v>
       </c>
       <c r="I82" s="2">
-        <v>269</v>
+        <v>68</v>
       </c>
       <c r="J82" s="2">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="L82" s="1">
-        <v>72.2</v>
+        <v>73.7</v>
       </c>
       <c r="M82" s="1">
-        <v>71.3</v>
+        <v>73</v>
       </c>
       <c r="N82" s="1">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="O82" s="1">
-        <v>13.7</v>
+        <v>12</v>
       </c>
       <c r="P82" s="1">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="Q82" s="1">
         <v>978</v>
@@ -4599,10 +4579,10 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C83" s="1">
         <v>0</v>
@@ -4611,34 +4591,34 @@
         <v>2</v>
       </c>
       <c r="F83" s="2">
-        <v>195184592</v>
+        <v>142273063</v>
       </c>
       <c r="G83" s="2">
-        <v>490</v>
+        <v>111</v>
       </c>
       <c r="H83" s="2">
-        <v>1529063</v>
+        <v>5212698</v>
       </c>
       <c r="I83" s="2">
-        <v>266</v>
+        <v>68</v>
       </c>
       <c r="J83" s="2">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="L83" s="1">
-        <v>88.7</v>
+        <v>92.3</v>
       </c>
       <c r="M83" s="1">
-        <v>86.9</v>
+        <v>90.9</v>
       </c>
       <c r="N83" s="1">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O83" s="1">
-        <v>4.9000000000000004</v>
+        <v>2.5</v>
       </c>
       <c r="P83" s="1">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="Q83" s="1">
         <v>978</v>
@@ -4646,10 +4626,10 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C84" s="1">
         <v>0</v>
@@ -4658,34 +4638,34 @@
         <v>3</v>
       </c>
       <c r="F84" s="2">
-        <v>194854289</v>
+        <v>142122775</v>
       </c>
       <c r="G84" s="2">
-        <v>490</v>
+        <v>111</v>
       </c>
       <c r="H84" s="2">
-        <v>1526881</v>
+        <v>5202785</v>
       </c>
       <c r="I84" s="2">
-        <v>266</v>
+        <v>68</v>
       </c>
       <c r="J84" s="2">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="L84" s="1">
-        <v>91.5</v>
+        <v>95</v>
       </c>
       <c r="M84" s="1">
-        <v>89.5</v>
+        <v>93.5</v>
       </c>
       <c r="N84" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O84" s="1">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P84" s="1">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="Q84" s="1">
         <v>978</v>
@@ -4693,10 +4673,10 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
@@ -4705,34 +4685,34 @@
         <v>4</v>
       </c>
       <c r="F85" s="2">
-        <v>194712811</v>
+        <v>142082574</v>
       </c>
       <c r="G85" s="2">
-        <v>490</v>
+        <v>111</v>
       </c>
       <c r="H85" s="2">
-        <v>1526691</v>
+        <v>5203619</v>
       </c>
       <c r="I85" s="2">
-        <v>265</v>
+        <v>68</v>
       </c>
       <c r="J85" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="L85" s="1">
-        <v>92</v>
+        <v>95.4</v>
       </c>
       <c r="M85" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="N85" s="1">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O85" s="1">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="P85" s="1">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="Q85" s="1">
         <v>978</v>
@@ -4740,10 +4720,10 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C86" s="1">
         <v>0</v>
@@ -4752,34 +4732,34 @@
         <v>5</v>
       </c>
       <c r="F86" s="2">
-        <v>194650782</v>
+        <v>142063946</v>
       </c>
       <c r="G86" s="2">
-        <v>490</v>
+        <v>111</v>
       </c>
       <c r="H86" s="2">
-        <v>1526414</v>
+        <v>5203133</v>
       </c>
       <c r="I86" s="2">
-        <v>264</v>
+        <v>68</v>
       </c>
       <c r="J86" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="L86" s="1">
-        <v>92.1</v>
+        <v>95.5</v>
       </c>
       <c r="M86" s="1">
-        <v>90.1</v>
+        <v>94.1</v>
       </c>
       <c r="N86" s="1">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O86" s="1">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="P86" s="1">
-        <v>4.9000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="Q86" s="1">
         <v>978</v>
@@ -4787,10 +4767,10 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C87" s="1">
         <v>0</v>
@@ -4799,335 +4779,53 @@
         <v>6</v>
       </c>
       <c r="F87" s="2">
-        <v>194587023</v>
+        <v>142066674</v>
       </c>
       <c r="G87" s="2">
-        <v>490</v>
+        <v>111</v>
       </c>
       <c r="H87" s="2">
-        <v>1526407</v>
+        <v>5203268</v>
       </c>
       <c r="I87" s="2">
-        <v>264</v>
+        <v>68</v>
       </c>
       <c r="J87" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="L87" s="1">
-        <v>92.1</v>
+        <v>95.5</v>
       </c>
       <c r="M87" s="1">
-        <v>90.1</v>
+        <v>94.1</v>
       </c>
       <c r="N87" s="1">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O87" s="1">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="P87" s="1">
-        <v>4.9000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="Q87" s="1">
         <v>978</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="1">
-        <v>0</v>
-      </c>
-      <c r="D88" s="1">
-        <v>1</v>
-      </c>
-      <c r="F88" s="2">
-        <v>141954573</v>
-      </c>
-      <c r="G88" s="2">
-        <v>111</v>
-      </c>
-      <c r="H88" s="2">
-        <v>5189791</v>
-      </c>
-      <c r="I88" s="2">
-        <v>68</v>
-      </c>
-      <c r="J88" s="2">
-        <v>32</v>
-      </c>
-      <c r="L88" s="1">
-        <v>73.7</v>
-      </c>
-      <c r="M88" s="1">
-        <v>73</v>
-      </c>
-      <c r="N88" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="O88" s="1">
-        <v>12</v>
-      </c>
-      <c r="P88" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="Q88" s="1">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" s="1">
-        <v>0</v>
-      </c>
-      <c r="D89" s="1">
-        <v>2</v>
-      </c>
-      <c r="F89" s="2">
-        <v>142273063</v>
-      </c>
-      <c r="G89" s="2">
-        <v>111</v>
-      </c>
-      <c r="H89" s="2">
-        <v>5212698</v>
-      </c>
-      <c r="I89" s="2">
-        <v>68</v>
-      </c>
-      <c r="J89" s="2">
-        <v>32</v>
-      </c>
-      <c r="L89" s="1">
-        <v>92.3</v>
-      </c>
-      <c r="M89" s="1">
-        <v>90.9</v>
-      </c>
-      <c r="N89" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="O89" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="P89" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="Q89" s="1">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" s="1">
-        <v>0</v>
-      </c>
-      <c r="D90" s="1">
-        <v>3</v>
-      </c>
-      <c r="F90" s="2">
-        <v>142122775</v>
-      </c>
-      <c r="G90" s="2">
-        <v>111</v>
-      </c>
-      <c r="H90" s="2">
-        <v>5202785</v>
-      </c>
-      <c r="I90" s="2">
-        <v>68</v>
-      </c>
-      <c r="J90" s="2">
-        <v>32</v>
-      </c>
-      <c r="L90" s="1">
-        <v>95</v>
-      </c>
-      <c r="M90" s="1">
-        <v>93.5</v>
-      </c>
-      <c r="N90" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="O90" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P90" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="Q90" s="1">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>1</v>
-      </c>
-      <c r="B91" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" s="1">
-        <v>0</v>
-      </c>
-      <c r="D91" s="1">
-        <v>4</v>
-      </c>
-      <c r="F91" s="2">
-        <v>142082574</v>
-      </c>
-      <c r="G91" s="2">
-        <v>111</v>
-      </c>
-      <c r="H91" s="2">
-        <v>5203619</v>
-      </c>
-      <c r="I91" s="2">
-        <v>68</v>
-      </c>
-      <c r="J91" s="2">
-        <v>31</v>
-      </c>
-      <c r="L91" s="1">
-        <v>95.4</v>
-      </c>
-      <c r="M91" s="1">
-        <v>94</v>
-      </c>
-      <c r="N91" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="O91" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="P91" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="Q91" s="1">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" s="1">
-        <v>0</v>
-      </c>
-      <c r="D92" s="1">
-        <v>5</v>
-      </c>
-      <c r="F92" s="2">
-        <v>142063946</v>
-      </c>
-      <c r="G92" s="2">
-        <v>111</v>
-      </c>
-      <c r="H92" s="2">
-        <v>5203133</v>
-      </c>
-      <c r="I92" s="2">
-        <v>68</v>
-      </c>
-      <c r="J92" s="2">
-        <v>31</v>
-      </c>
-      <c r="L92" s="1">
-        <v>95.5</v>
-      </c>
-      <c r="M92" s="1">
-        <v>94.1</v>
-      </c>
-      <c r="N92" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="O92" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="P92" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="Q92" s="1">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>1</v>
-      </c>
-      <c r="B93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C93" s="1">
-        <v>0</v>
-      </c>
-      <c r="D93" s="1">
-        <v>6</v>
-      </c>
-      <c r="F93" s="2">
-        <v>142066674</v>
-      </c>
-      <c r="G93" s="2">
-        <v>111</v>
-      </c>
-      <c r="H93" s="2">
-        <v>5203268</v>
-      </c>
-      <c r="I93" s="2">
-        <v>68</v>
-      </c>
-      <c r="J93" s="2">
-        <v>31</v>
-      </c>
-      <c r="L93" s="1">
-        <v>95.5</v>
-      </c>
-      <c r="M93" s="1">
-        <v>94.1</v>
-      </c>
-      <c r="N93" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="O93" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="P93" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="Q93" s="1">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118"/>
-      <c r="B118"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118"/>
-      <c r="F118" s="1"/>
-      <c r="K118"/>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
-      <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
-      <c r="Q118" s="1"/>
+    <row r="112" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112"/>
+      <c r="F112" s="1"/>
+      <c r="K112"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
